--- a/data-raw/indicator_mapping.xlsx
+++ b/data-raw/indicator_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb559885\OneDrive - WBG\Documents\GitProjects\hrmistools\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30262F5B-70E3-4BB4-BFD1-9141CA1C98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC65F8-E9EA-4715-B39E-86523B159D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EC0E2846-C004-46C1-A750-36E62F0925D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0E2846-C004-46C1-A750-36E62F0925D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Indicator</t>
   </si>
@@ -56,9 +56,6 @@
     <t>wage bill (gross, net, total) by administrative and industry classification</t>
   </si>
   <si>
-    <t>Top x and bottom x annual salaries by administrative and industry classification</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>gender wage premier (adjusted for occupation and education)</t>
-  </si>
-  <si>
-    <t>still harmonizing occupational classification</t>
   </si>
   <si>
     <t>missing student data (edstats)</t>
@@ -167,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,9 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB368C5-9894-43E5-B209-F216245C8980}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,37 +568,37 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +614,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +625,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,15 +649,15 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,51 +665,46 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
